--- a/my_abaviazkova_vyzhyviem___.xlsx
+++ b/my_abaviazkova_vyzhyviem___.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4_1\Labs\ITPM\IT_projects_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFAFA77-F728-4E1D-8475-6DAA087085ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E860A-42D6-4E3E-9B2C-508F0C0862CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,77 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>Содержание работ</t>
+  </si>
+  <si>
+    <t>Исполнитель</t>
+  </si>
+  <si>
+    <t>Трудозатраты, часов</t>
+  </si>
+  <si>
+    <t>Специалист</t>
+  </si>
+  <si>
+    <t>Ставка</t>
+  </si>
+  <si>
+    <t>Основная заработная плата, руб</t>
+  </si>
+  <si>
+    <t>Дополнительная заработная плата, руб</t>
+  </si>
+  <si>
+    <t>Отчисления в ФСЗН и БГС, %, руб</t>
+  </si>
+  <si>
+    <t>Прочие прямые затраты, руб</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Себестоимость разработки программного средства, руб</t>
+  </si>
+  <si>
+    <t>Расходы на реализацию, руб</t>
+  </si>
+  <si>
+    <t>Полная себестоимость, руб</t>
+  </si>
+  <si>
+    <t>Чистая прибыль</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Рентабельность</t>
+  </si>
+  <si>
+    <t>Годовые денежные поступления от рекламы/установок, руб</t>
+  </si>
+  <si>
+    <t>Срок окупаемости, лет</t>
+  </si>
+  <si>
+    <t>Кол-во пользователей, необходимых для окупаемости продукта, чел</t>
+  </si>
+  <si>
+    <t>Ёсць у табліцы Мілы</t>
+  </si>
+  <si>
+    <t>Ёсць у табліцы файле</t>
+  </si>
+  <si>
+    <t>Расходы на сопровождение, руб</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36,17 +107,65 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -56,8 +175,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,12 +518,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8595A-2C90-4C21-BB35-F8CD52EE3C65}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/my_abaviazkova_vyzhyviem___.xlsx
+++ b/my_abaviazkova_vyzhyviem___.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4_1\Labs\ITPM\IT_projects_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4E860A-42D6-4E3E-9B2C-508F0C0862CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E59771-AEAF-4E9D-871F-6DDA4E907AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
   </bookViews>
@@ -107,18 +107,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -175,33 +169,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8595A-2C90-4C21-BB35-F8CD52EE3C65}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,126 +525,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
+    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/my_abaviazkova_vyzhyviem___.xlsx
+++ b/my_abaviazkova_vyzhyviem___.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4_1\Labs\ITPM\IT_projects_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E59771-AEAF-4E9D-871F-6DDA4E907AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039D1D5-0284-40BB-A032-7CE82863F6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Содержание работ</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Прочие прямые затраты, руб</t>
+  </si>
+  <si>
+    <t>Накладные расходы, руб</t>
   </si>
   <si>
     <t>Итого</t>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8595A-2C90-4C21-BB35-F8CD52EE3C65}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +558,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -568,11 +571,19 @@
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B9">
+        <f>B8*0.9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="B10">
+        <f>(B8+B9)*(0.34+0.006)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -584,26 +595,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
+    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
+      <c r="A16" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -618,34 +629,39 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="24" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/my_abaviazkova_vyzhyviem___.xlsx
+++ b/my_abaviazkova_vyzhyviem___.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4_1\Labs\ITPM\IT_projects_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8039D1D5-0284-40BB-A032-7CE82863F6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B475C-A874-47E0-B2BB-BAC8476F3389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Содержание работ</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Специалист</t>
   </si>
   <si>
-    <t>Ставка</t>
-  </si>
-  <si>
     <t>Основная заработная плата, руб</t>
   </si>
   <si>
@@ -94,14 +91,71 @@
   </si>
   <si>
     <t>Расходы на сопровождение, руб</t>
+  </si>
+  <si>
+    <t>Сбор требований у заказчика</t>
+  </si>
+  <si>
+    <t>Анализ требований</t>
+  </si>
+  <si>
+    <t>Устранение противоречий</t>
+  </si>
+  <si>
+    <t>Утвержение требований</t>
+  </si>
+  <si>
+    <t>Дизайн</t>
+  </si>
+  <si>
+    <t>Проектирование и кодирование серверной части</t>
+  </si>
+  <si>
+    <t>Проектирование и кодирование клиентской части</t>
+  </si>
+  <si>
+    <t>Тестирование всего приложения</t>
+  </si>
+  <si>
+    <t>Отладка и внесение корректировок</t>
+  </si>
+  <si>
+    <t>Введение в эксплуатацию</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Часовая ставка, руб/ч</t>
+  </si>
+  <si>
+    <t>&lt;= СУММ(т*чс)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>&lt;= канкрэтныя іншыя сервісы, якімі карыстаемся, або 20-30%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,12 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -200,6 +251,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,154 +579,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8595A-2C90-4C21-BB35-F8CD52EE3C65}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <f>SUM(C2:C12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B19" s="1">
+        <f>B18*0.9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
-        <f>B8*0.9</f>
+      <c r="B20" s="1">
+        <f>(B18+B19)*(0.34+0.006)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
-        <f>(B8+B9)*(0.34+0.006)</f>
+      <c r="B21" s="1"/>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B18*0.5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/my_abaviazkova_vyzhyviem___.xlsx
+++ b/my_abaviazkova_vyzhyviem___.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4_1\Labs\ITPM\IT_projects_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B475C-A874-47E0-B2BB-BAC8476F3389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F4F152-DFB3-4D71-9020-C8393BAC22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Содержание работ</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Себестоимость разработки программного средства, руб</t>
   </si>
   <si>
-    <t>Расходы на реализацию, руб</t>
-  </si>
-  <si>
     <t>Полная себестоимость, руб</t>
   </si>
   <si>
@@ -75,24 +72,6 @@
     <t>Рентабельность</t>
   </si>
   <si>
-    <t>Годовые денежные поступления от рекламы/установок, руб</t>
-  </si>
-  <si>
-    <t>Срок окупаемости, лет</t>
-  </si>
-  <si>
-    <t>Кол-во пользователей, необходимых для окупаемости продукта, чел</t>
-  </si>
-  <si>
-    <t>Ёсць у табліцы Мілы</t>
-  </si>
-  <si>
-    <t>Ёсць у табліцы файле</t>
-  </si>
-  <si>
-    <t>Расходы на сопровождение, руб</t>
-  </si>
-  <si>
     <t>Сбор требований у заказчика</t>
   </si>
   <si>
@@ -139,6 +118,9 @@
   </si>
   <si>
     <t>&lt;= канкрэтныя іншыя сервісы, якімі карыстаемся, або 20-30%</t>
+  </si>
+  <si>
+    <t>Расходы на сопровождение и адаптацию, руб</t>
   </si>
 </sst>
 </file>
@@ -164,24 +146,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -226,29 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,6 +223,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -579,119 +538,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8595A-2C90-4C21-BB35-F8CD52EE3C65}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7">
         <f>SUM(C2:C12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -701,7 +660,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,18 +671,18 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -732,7 +691,7 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -759,7 +718,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -775,83 +734,70 @@
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="B23" s="1">
+        <f>B18+B19+B20+B21+B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1"/>
+      <c r="B25" s="1">
+        <f>B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <f>B25*0.1</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <f>B25+B26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <f>B27*0.3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <f>(B27+B28)*(1-0.2)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="B30" s="12" t="e">
+        <f>B28/B27</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my_abaviazkova_vyzhyviem___.xlsx
+++ b/my_abaviazkova_vyzhyviem___.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSTU\4_1\Labs\ITPM\IT_projects_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F4F152-DFB3-4D71-9020-C8393BAC22DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF0BF34-B4AF-4B24-BCE0-C454E8355FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF7E8018-240C-4D85-83D0-3D18A7166B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Содержание работ</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Дополнительная заработная плата, руб</t>
   </si>
   <si>
-    <t>Отчисления в ФСЗН и БГС, %, руб</t>
-  </si>
-  <si>
     <t>Прочие прямые затраты, руб</t>
   </si>
   <si>
@@ -105,29 +102,71 @@
     <t>Всего</t>
   </si>
   <si>
-    <t>Управление</t>
-  </si>
-  <si>
     <t>Часовая ставка, руб/ч</t>
   </si>
   <si>
-    <t>&lt;= СУММ(т*чс)</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>&lt;= канкрэтныя іншыя сервісы, якімі карыстаемся, або 20-30%</t>
-  </si>
-  <si>
     <t>Расходы на сопровождение и адаптацию, руб</t>
+  </si>
+  <si>
+    <t>BA, Техлид</t>
+  </si>
+  <si>
+    <t>BA, Техлид, BO</t>
+  </si>
+  <si>
+    <t>FD1, FD2</t>
+  </si>
+  <si>
+    <t>BD1, BD2, BD3</t>
+  </si>
+  <si>
+    <t>BA, Техлид, BO, QA</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>BD1, BD2, BD3, FD1, FD2</t>
+  </si>
+  <si>
+    <t>Техлид, BD1, BD2, FD1</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Техлид</t>
+  </si>
+  <si>
+    <t>BD1</t>
+  </si>
+  <si>
+    <t>BD2</t>
+  </si>
+  <si>
+    <t>BD3</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>Отчисления в ФСЗН и БГС, руб</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;Br&quot;"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +184,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +202,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,12 +260,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,17 +274,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,268 +608,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B8595A-2C90-4C21-BB35-F8CD52EE3C65}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="24.109375" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6">
         <v>16</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <f>SUM(C2:C11)</f>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1">
+        <v>120</v>
+      </c>
+      <c r="F15" s="1">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
+        <v>96</v>
+      </c>
+      <c r="H15" s="1">
+        <v>96</v>
+      </c>
+      <c r="I15" s="1">
+        <v>96</v>
+      </c>
+      <c r="J15" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="9">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUMPRODUCT(B15:J15,B16:J16)</f>
+        <v>13408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B17*0.9</f>
+        <v>12067.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8">
+        <f>(B17+B18)*(0.34+0.006)</f>
+        <v>8814.4192000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="8">
+        <f>0.2*B17</f>
+        <v>2681.6000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8">
+        <f>B17*0.5</f>
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8">
+        <f>B17+B18+B19+B20+B21</f>
+        <v>43675.2192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8">
+        <f>B22</f>
+        <v>43675.2192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
-        <f>SUM(C2:C12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B18*0.9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1">
-        <f>(B18+B19)*(0.34+0.006)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B18*0.5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1">
-        <f>B18+B19+B20+B21+B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="8">
+        <f>B24*0.1</f>
+        <v>4367.5219200000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1">
-        <f>B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1">
-        <f>B25*0.1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="8">
+        <f>B24+B25</f>
+        <v>48042.741119999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="7">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1">
-        <f>B25+B26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="8">
+        <f>B26*B27</f>
+        <v>9608.5482240000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1">
-        <f>B27*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="1">
-        <f>(B27+B28)*(1-0.2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="12" t="e">
-        <f>B28/B27</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="B29" s="8">
+        <f>(B26+B28)*(1+0.2)</f>
+        <v>69181.547212799996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>